--- a/RandomForest/PFMatrix2.xlsx
+++ b/RandomForest/PFMatrix2.xlsx
@@ -429,46 +429,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5031055900621118</v>
+        <v>0.4336731422709496</v>
       </c>
       <c r="C2">
-        <v>0.5077639751552795</v>
+        <v>0.4496800465386853</v>
       </c>
       <c r="D2">
-        <v>0.5201863354037267</v>
+        <v>0.4408300616937745</v>
       </c>
       <c r="E2">
-        <v>0.5131987577639752</v>
+        <v>0.4508713385242862</v>
       </c>
       <c r="F2">
-        <v>0.5038819875776398</v>
+        <v>0.5165627673878499</v>
       </c>
       <c r="G2">
-        <v>0.499611801242236</v>
+        <v>0.4799646954986761</v>
       </c>
       <c r="H2">
-        <v>0.499611801242236</v>
+        <v>0.5833628946434906</v>
       </c>
       <c r="I2">
-        <v>0.4934006211180124</v>
+        <v>0.4570416297608503</v>
       </c>
       <c r="J2">
-        <v>0.4934006211180124</v>
+        <v>0.5199952533523199</v>
       </c>
       <c r="K2">
-        <v>0.4937888198757764</v>
+        <v>0.5861360568175148</v>
       </c>
       <c r="L2">
-        <v>0.5027950310559006</v>
+        <v>0.4918117886488398</v>
       </c>
       <c r="M2">
-        <v>0.6202216131040743</v>
+        <v>0.4767505099671029</v>
       </c>
       <c r="N2">
-        <v>0.9094229951707622</v>
+        <v>0.4993653223342319</v>
       </c>
       <c r="O2">
-        <v>0.5027950310559006</v>
+        <v>0.4918117886488398</v>
       </c>
     </row>
   </sheetData>
